--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lama1-Rpsa.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lama1-Rpsa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Rpsa</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H2">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I2">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J2">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>53.73758233333333</v>
+        <v>156.53184</v>
       </c>
       <c r="N2">
-        <v>161.212747</v>
+        <v>469.59552</v>
       </c>
       <c r="O2">
-        <v>0.05888757418975076</v>
+        <v>0.1403721039197297</v>
       </c>
       <c r="P2">
-        <v>0.05888757418975077</v>
+        <v>0.1403721039197297</v>
       </c>
       <c r="Q2">
-        <v>3.184650341820332</v>
+        <v>2.20897732608</v>
       </c>
       <c r="R2">
-        <v>28.66185307638299</v>
+        <v>19.88079593472</v>
       </c>
       <c r="S2">
-        <v>0.02589008723771059</v>
+        <v>0.02489743388542374</v>
       </c>
       <c r="T2">
-        <v>0.02589008723771059</v>
+        <v>0.02489743388542373</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H3">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I3">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J3">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1167.6026</v>
       </c>
       <c r="O3">
-        <v>0.4265002985877158</v>
+        <v>0.3490212885850074</v>
       </c>
       <c r="P3">
-        <v>0.4265002985877159</v>
+        <v>0.3490212885850074</v>
       </c>
       <c r="Q3">
-        <v>23.06521096126666</v>
+        <v>5.492402630399999</v>
       </c>
       <c r="R3">
-        <v>207.5868986514</v>
+        <v>49.43162367359999</v>
       </c>
       <c r="S3">
-        <v>0.1875120530821158</v>
+        <v>0.06190499546918348</v>
       </c>
       <c r="T3">
-        <v>0.1875120530821158</v>
+        <v>0.06190499546918347</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H4">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I4">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J4">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.7388736666667</v>
+        <v>169.4499613333333</v>
       </c>
       <c r="N4">
-        <v>398.216621</v>
+        <v>508.349884</v>
       </c>
       <c r="O4">
-        <v>0.1454600287453036</v>
+        <v>0.1519566088373896</v>
       </c>
       <c r="P4">
-        <v>0.1454600287453037</v>
+        <v>0.1519566088373896</v>
       </c>
       <c r="Q4">
-        <v>7.866503870107666</v>
+        <v>2.391277854336</v>
       </c>
       <c r="R4">
-        <v>70.79853483096899</v>
+        <v>21.521500689024</v>
       </c>
       <c r="S4">
-        <v>0.06395190981514839</v>
+        <v>0.02695214730232696</v>
       </c>
       <c r="T4">
-        <v>0.06395190981514842</v>
+        <v>0.02695214730232696</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H5">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I5">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J5">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>145.898463</v>
+        <v>169.0002543333333</v>
       </c>
       <c r="N5">
-        <v>437.695389</v>
+        <v>507.000763</v>
       </c>
       <c r="O5">
-        <v>0.1598807797267379</v>
+        <v>0.1515533278324679</v>
       </c>
       <c r="P5">
-        <v>0.1598807797267379</v>
+        <v>0.1515533278324679</v>
       </c>
       <c r="Q5">
-        <v>8.646380612768999</v>
+        <v>2.384931589152</v>
       </c>
       <c r="R5">
-        <v>77.81742551492098</v>
+        <v>21.464384302368</v>
       </c>
       <c r="S5">
-        <v>0.07029203345039255</v>
+        <v>0.02688061840251775</v>
       </c>
       <c r="T5">
-        <v>0.07029203345039257</v>
+        <v>0.02688061840251774</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H6">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I6">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J6">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.687468</v>
+        <v>60.30985666666667</v>
       </c>
       <c r="N6">
-        <v>176.062404</v>
+        <v>180.92957</v>
       </c>
       <c r="O6">
-        <v>0.06431183681508679</v>
+        <v>0.05408370250677011</v>
       </c>
       <c r="P6">
-        <v>0.0643118368150868</v>
+        <v>0.05408370250677011</v>
       </c>
       <c r="Q6">
-        <v>3.477995416083999</v>
+        <v>0.85109269728</v>
       </c>
       <c r="R6">
-        <v>31.30195874475599</v>
+        <v>7.659834275520001</v>
       </c>
       <c r="S6">
-        <v>0.02827487952203336</v>
+        <v>0.009592685226198808</v>
       </c>
       <c r="T6">
-        <v>0.02827487952203337</v>
+        <v>0.009592685226198806</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H7">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I7">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J7">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>132.282102</v>
+        <v>170.6279296666667</v>
       </c>
       <c r="N7">
-        <v>396.846306</v>
+        <v>511.883789</v>
       </c>
       <c r="O7">
-        <v>0.1449594819354051</v>
+        <v>0.1530129683186351</v>
       </c>
       <c r="P7">
-        <v>0.1449594819354051</v>
+        <v>0.1530129683186351</v>
       </c>
       <c r="Q7">
-        <v>7.839434210825999</v>
+        <v>2.407901343456</v>
       </c>
       <c r="R7">
-        <v>70.55490789743399</v>
+        <v>21.671112091104</v>
       </c>
       <c r="S7">
-        <v>0.0637318430055856</v>
+        <v>0.02713951102780473</v>
       </c>
       <c r="T7">
-        <v>0.06373184300558563</v>
+        <v>0.02713951102780473</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H8">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I8">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J8">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.73758233333333</v>
+        <v>156.53184</v>
       </c>
       <c r="N8">
-        <v>161.212747</v>
+        <v>469.59552</v>
       </c>
       <c r="O8">
-        <v>0.05888757418975076</v>
+        <v>0.1403721039197297</v>
       </c>
       <c r="P8">
-        <v>0.05888757418975077</v>
+        <v>0.1403721039197297</v>
       </c>
       <c r="Q8">
-        <v>4.058907068801333</v>
+        <v>9.27654643392</v>
       </c>
       <c r="R8">
-        <v>36.530163619212</v>
+        <v>83.48891790527999</v>
       </c>
       <c r="S8">
-        <v>0.03299748695204017</v>
+        <v>0.1045561666916006</v>
       </c>
       <c r="T8">
-        <v>0.03299748695204018</v>
+        <v>0.1045561666916005</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H9">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I9">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J9">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>1167.6026</v>
       </c>
       <c r="O9">
-        <v>0.4265002985877158</v>
+        <v>0.3490212885850074</v>
       </c>
       <c r="P9">
-        <v>0.4265002985877159</v>
+        <v>0.3490212885850074</v>
       </c>
       <c r="Q9">
-        <v>29.39711986106666</v>
+        <v>23.06521096126666</v>
       </c>
       <c r="R9">
-        <v>264.5740787496</v>
+        <v>207.5868986514</v>
       </c>
       <c r="S9">
-        <v>0.2389882455056</v>
+        <v>0.2599685194508377</v>
       </c>
       <c r="T9">
-        <v>0.2389882455056001</v>
+        <v>0.2599685194508375</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H10">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I10">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J10">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.7388736666667</v>
+        <v>169.4499613333333</v>
       </c>
       <c r="N10">
-        <v>398.216621</v>
+        <v>508.349884</v>
       </c>
       <c r="O10">
-        <v>0.1454600287453036</v>
+        <v>0.1519566088373896</v>
       </c>
       <c r="P10">
-        <v>0.1454600287453037</v>
+        <v>0.1519566088373896</v>
       </c>
       <c r="Q10">
-        <v>10.02603260579067</v>
+        <v>10.04211305849733</v>
       </c>
       <c r="R10">
-        <v>90.23429345211602</v>
+        <v>90.37901752647599</v>
       </c>
       <c r="S10">
-        <v>0.08150811893015524</v>
+        <v>0.1131848855993341</v>
       </c>
       <c r="T10">
-        <v>0.08150811893015526</v>
+        <v>0.1131848855993341</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H11">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I11">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J11">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>145.898463</v>
+        <v>169.0002543333333</v>
       </c>
       <c r="N11">
-        <v>437.695389</v>
+        <v>507.000763</v>
       </c>
       <c r="O11">
-        <v>0.1598807797267379</v>
+        <v>0.1515533278324679</v>
       </c>
       <c r="P11">
-        <v>0.1598807797267379</v>
+        <v>0.1515533278324679</v>
       </c>
       <c r="Q11">
-        <v>11.020002707316</v>
+        <v>10.01546207255633</v>
       </c>
       <c r="R11">
-        <v>99.18002436584401</v>
+        <v>90.139158653007</v>
       </c>
       <c r="S11">
-        <v>0.08958874627634529</v>
+        <v>0.1128845017282036</v>
       </c>
       <c r="T11">
-        <v>0.08958874627634533</v>
+        <v>0.1128845017282036</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H12">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I12">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J12">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.687468</v>
+        <v>60.30985666666667</v>
       </c>
       <c r="N12">
-        <v>176.062404</v>
+        <v>180.92957</v>
       </c>
       <c r="O12">
-        <v>0.06431183681508679</v>
+        <v>0.05408370250677011</v>
       </c>
       <c r="P12">
-        <v>0.0643118368150868</v>
+        <v>0.05408370250677011</v>
       </c>
       <c r="Q12">
-        <v>4.432781832976</v>
+        <v>3.574143035636667</v>
       </c>
       <c r="R12">
-        <v>39.895036496784</v>
+        <v>32.16728732073</v>
       </c>
       <c r="S12">
-        <v>0.03603695729305342</v>
+        <v>0.04028424777212443</v>
       </c>
       <c r="T12">
-        <v>0.03603695729305343</v>
+        <v>0.04028424777212442</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H13">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I13">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J13">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,400 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>132.282102</v>
+        <v>170.6279296666667</v>
       </c>
       <c r="N13">
-        <v>396.846306</v>
+        <v>511.883789</v>
       </c>
       <c r="O13">
-        <v>0.1449594819354051</v>
+        <v>0.1530129683186351</v>
       </c>
       <c r="P13">
-        <v>0.1449594819354051</v>
+        <v>0.1530129683186351</v>
       </c>
       <c r="Q13">
-        <v>9.991531728264</v>
+        <v>10.11192299583567</v>
       </c>
       <c r="R13">
-        <v>89.92378555437601</v>
+        <v>91.007306962521</v>
       </c>
       <c r="S13">
-        <v>0.08122763892981949</v>
+        <v>0.1139717149972216</v>
       </c>
       <c r="T13">
-        <v>0.08122763892981953</v>
+        <v>0.1139717149972216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.018566</v>
+      </c>
+      <c r="I14">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J14">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>156.53184</v>
+      </c>
+      <c r="N14">
+        <v>469.59552</v>
+      </c>
+      <c r="O14">
+        <v>0.1403721039197297</v>
+      </c>
+      <c r="P14">
+        <v>0.1403721039197297</v>
+      </c>
+      <c r="Q14">
+        <v>0.9687233804799998</v>
+      </c>
+      <c r="R14">
+        <v>8.71851042432</v>
+      </c>
+      <c r="S14">
+        <v>0.01091850334270543</v>
+      </c>
+      <c r="T14">
+        <v>0.01091850334270543</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.018566</v>
+      </c>
+      <c r="I15">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J15">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>389.2008666666666</v>
+      </c>
+      <c r="N15">
+        <v>1167.6026</v>
+      </c>
+      <c r="O15">
+        <v>0.3490212885850074</v>
+      </c>
+      <c r="P15">
+        <v>0.3490212885850074</v>
+      </c>
+      <c r="Q15">
+        <v>2.408634430177777</v>
+      </c>
+      <c r="R15">
+        <v>21.6777098716</v>
+      </c>
+      <c r="S15">
+        <v>0.02714777366498631</v>
+      </c>
+      <c r="T15">
+        <v>0.0271477736649863</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.018566</v>
+      </c>
+      <c r="I16">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J16">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>169.4499613333333</v>
+      </c>
+      <c r="N16">
+        <v>508.349884</v>
+      </c>
+      <c r="O16">
+        <v>0.1519566088373896</v>
+      </c>
+      <c r="P16">
+        <v>0.1519566088373896</v>
+      </c>
+      <c r="Q16">
+        <v>1.048669327371555</v>
+      </c>
+      <c r="R16">
+        <v>9.438023946344</v>
+      </c>
+      <c r="S16">
+        <v>0.01181957593572851</v>
+      </c>
+      <c r="T16">
+        <v>0.01181957593572851</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.018566</v>
+      </c>
+      <c r="I17">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J17">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>169.0002543333333</v>
+      </c>
+      <c r="N17">
+        <v>507.000763</v>
+      </c>
+      <c r="O17">
+        <v>0.1515533278324679</v>
+      </c>
+      <c r="P17">
+        <v>0.1515533278324679</v>
+      </c>
+      <c r="Q17">
+        <v>1.045886240650889</v>
+      </c>
+      <c r="R17">
+        <v>9.412976165858</v>
+      </c>
+      <c r="S17">
+        <v>0.01178820770174661</v>
+      </c>
+      <c r="T17">
+        <v>0.01178820770174661</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H18">
+        <v>0.018566</v>
+      </c>
+      <c r="I18">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J18">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>60.30985666666667</v>
+      </c>
+      <c r="N18">
+        <v>180.92957</v>
+      </c>
+      <c r="O18">
+        <v>0.05408370250677011</v>
+      </c>
+      <c r="P18">
+        <v>0.05408370250677011</v>
+      </c>
+      <c r="Q18">
+        <v>0.3732375996244444</v>
+      </c>
+      <c r="R18">
+        <v>3.35913839662</v>
+      </c>
+      <c r="S18">
+        <v>0.004206769508446878</v>
+      </c>
+      <c r="T18">
+        <v>0.004206769508446877</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.018566</v>
+      </c>
+      <c r="I19">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J19">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>170.6279296666667</v>
+      </c>
+      <c r="N19">
+        <v>511.883789</v>
+      </c>
+      <c r="O19">
+        <v>0.1530129683186351</v>
+      </c>
+      <c r="P19">
+        <v>0.1530129683186351</v>
+      </c>
+      <c r="Q19">
+        <v>1.055959380730444</v>
+      </c>
+      <c r="R19">
+        <v>9.503634426573999</v>
+      </c>
+      <c r="S19">
+        <v>0.01190174229360881</v>
+      </c>
+      <c r="T19">
+        <v>0.01190174229360881</v>
       </c>
     </row>
   </sheetData>
